--- a/output/fit_clients/fit_round_492.xlsx
+++ b/output/fit_clients/fit_round_492.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2131440525.948448</v>
+        <v>2203820696.329644</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07071271254472836</v>
+        <v>0.09679460144970742</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03591588318173898</v>
+        <v>0.04185376738008707</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1065720276.314733</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1999089108.959787</v>
+        <v>2127697208.384032</v>
       </c>
       <c r="F3" t="n">
-        <v>0.160976033737752</v>
+        <v>0.1797494435693572</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04796285656021695</v>
+        <v>0.04799709945010841</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>999544594.4277885</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4907167098.288913</v>
+        <v>4799296305.946013</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1380243695290066</v>
+        <v>0.1384521104492215</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03383916843447226</v>
+        <v>0.03009781023687373</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>178</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2453583627.607456</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3277097061.31507</v>
+        <v>3163615889.509409</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08174263147895787</v>
+        <v>0.07975154768850373</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03717527535661178</v>
+        <v>0.03207708302019533</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>182</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1638548582.172575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2784803757.454878</v>
+        <v>2147689459.471663</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0937997353176093</v>
+        <v>0.1387558446524688</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05412662542151646</v>
+        <v>0.04712379987913567</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>93</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1392401823.409406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2810365420.404391</v>
+        <v>3147509745.695954</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07832993035645708</v>
+        <v>0.07568865068121673</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04295262091761674</v>
+        <v>0.02991553237444937</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>155</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1405182693.431235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3442098602.327606</v>
+        <v>3287021990.135402</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1849007293663375</v>
+        <v>0.1563493385455385</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03165499836421729</v>
+        <v>0.0229363845994707</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>158</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1721049403.89624</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2014385988.743916</v>
+        <v>1952562126.947186</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1825704670999728</v>
+        <v>0.1507345169107938</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02940423935584502</v>
+        <v>0.0275628945695261</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1007193019.005943</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3918941899.000194</v>
+        <v>4927800703.447311</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2160004966705539</v>
+        <v>0.1417551363334987</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04453616135482086</v>
+        <v>0.034749530843271</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>207</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1959470965.108665</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3252332959.24722</v>
+        <v>2947222476.897881</v>
       </c>
       <c r="F11" t="n">
-        <v>0.152551453253254</v>
+        <v>0.1312359901007426</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04688248131135522</v>
+        <v>0.0419229383659022</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>203</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1626166440.190522</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2435651473.354179</v>
+        <v>2979641327.098424</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1649476476187543</v>
+        <v>0.1547650930680673</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05280507536710023</v>
+        <v>0.04660142623590226</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>167</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1217825703.045661</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4663800628.0604</v>
+        <v>4156853516.090496</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07715805330959212</v>
+        <v>0.07882647298363411</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02028645038997415</v>
+        <v>0.02442072350243183</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>165</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2331900335.26656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2694176567.770637</v>
+        <v>3449472768.858161</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1181317923611233</v>
+        <v>0.1677094874769263</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02845256701537156</v>
+        <v>0.02869989288883584</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>157</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1347088340.493811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1674552516.778811</v>
+        <v>1822050393.661588</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09385632233337723</v>
+        <v>0.100553973200112</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03778909207178713</v>
+        <v>0.03364134721232176</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>837276383.4911643</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2407050382.83323</v>
+        <v>1852042600.911279</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1027187663313431</v>
+        <v>0.09034640847677224</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03832735069203404</v>
+        <v>0.03425204187774472</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>101</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1203525230.553268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4481784744.000569</v>
+        <v>3403662495.306273</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1607568750184115</v>
+        <v>0.1347611666655491</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03914726217437892</v>
+        <v>0.04004664407265307</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>146</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2240892382.818642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2540601112.902361</v>
+        <v>3275512825.879212</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1360358512206384</v>
+        <v>0.1589467275225076</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02489288763565958</v>
+        <v>0.03374033292751609</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>161</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1270300619.972698</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1222059741.797314</v>
+        <v>1376543233.361104</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1358011101984295</v>
+        <v>0.13480729599359</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02021249918401895</v>
+        <v>0.02180030520673607</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>611029954.1883563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2365460685.673489</v>
+        <v>2281985739.292341</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1167515815990677</v>
+        <v>0.1097724711675028</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02480842410582703</v>
+        <v>0.030092088928424</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>69</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1182730330.263991</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2202563159.628126</v>
+        <v>2424103553.636176</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09288172474943285</v>
+        <v>0.07203995574211977</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04155054193801926</v>
+        <v>0.034513961129359</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>37</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1101281596.423236</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3856643494.559129</v>
+        <v>2464525516.979775</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1152601678790966</v>
+        <v>0.1037630715069082</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03671223037771198</v>
+        <v>0.04655220992376816</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>136</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1928321757.537588</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1388858629.480571</v>
+        <v>1459183808.773302</v>
       </c>
       <c r="F23" t="n">
-        <v>0.155124210895842</v>
+        <v>0.157551436518915</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03309221266683599</v>
+        <v>0.04649087918900562</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>694429319.4489366</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3307341124.61419</v>
+        <v>3521237407.540384</v>
       </c>
       <c r="F24" t="n">
-        <v>0.128665089942693</v>
+        <v>0.1484928788853176</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03607914812336966</v>
+        <v>0.02713593677631526</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>145</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1653670576.899068</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>919562111.8146087</v>
+        <v>1020144439.083711</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1090823865962982</v>
+        <v>0.09258853202585816</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02008795305256402</v>
+        <v>0.02357190252488304</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>459781138.4242902</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>905143930.1236902</v>
+        <v>1339513191.020694</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09141696288714665</v>
+        <v>0.09235251944250515</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03888756394349169</v>
+        <v>0.03184516950528159</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>452571914.0016781</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2905834630.09089</v>
+        <v>4649790613.561774</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1322803616044037</v>
+        <v>0.1370275730447632</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02004824964226844</v>
+        <v>0.02599622205913192</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1452917379.555441</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2994470317.679683</v>
+        <v>2366632338.254104</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1210666564884522</v>
+        <v>0.1410856401674804</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05035693039903696</v>
+        <v>0.03171966149189606</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>158</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1497235169.588938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3879175931.997066</v>
+        <v>4978369054.099077</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1324547913717339</v>
+        <v>0.1500449090261675</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03535726394221818</v>
+        <v>0.03207449552447316</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>217</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1939587991.240958</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1951239967.971466</v>
+        <v>2179149345.968102</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1244881497023423</v>
+        <v>0.131973406580168</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03817372632245797</v>
+        <v>0.02715840494225462</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>975620015.8987581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1087993526.904542</v>
+        <v>933110455.6933178</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08746255772208769</v>
+        <v>0.07162490120063517</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05037894083797612</v>
+        <v>0.04346440906939351</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>543996741.2947876</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1832087998.528977</v>
+        <v>1298603980.966254</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08474828424766426</v>
+        <v>0.080191985034124</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03421364213184563</v>
+        <v>0.03136072130118114</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>916044136.4235729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2160170461.732491</v>
+        <v>2965678218.522087</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1971414913380981</v>
+        <v>0.179987579004951</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04644668768841434</v>
+        <v>0.04562898080538041</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>151</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1080085298.058973</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1494809241.444629</v>
+        <v>1545248758.468461</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1222447576887323</v>
+        <v>0.08453687236190302</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01894288595769093</v>
+        <v>0.02043459599027618</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>747404577.4975666</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1059812957.351758</v>
+        <v>1161626245.296244</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08347682562850078</v>
+        <v>0.1081549235007541</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0420375409796869</v>
+        <v>0.04440892452261908</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>529906484.1626301</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3170697156.357469</v>
+        <v>2152154965.220423</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1341501504769821</v>
+        <v>0.1670641513377984</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02895137082883113</v>
+        <v>0.02683268986662255</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>124</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1585348546.452071</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2424147290.648449</v>
+        <v>2638163177.333627</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09583839824736609</v>
+        <v>0.0892711306959084</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03660717675300316</v>
+        <v>0.03760096404550184</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>134</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1212073731.006607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1422765906.169919</v>
+        <v>1811370920.077305</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1102663000000758</v>
+        <v>0.08712993740941388</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03805214059391898</v>
+        <v>0.03192687408796674</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>711383013.2834829</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1569192468.530658</v>
+        <v>1665261609.810926</v>
       </c>
       <c r="F39" t="n">
-        <v>0.185938769584911</v>
+        <v>0.1814064429535491</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02993980156656161</v>
+        <v>0.02163952813717329</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>784596294.2266319</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1567144923.186751</v>
+        <v>1345378932.03114</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1083651600324229</v>
+        <v>0.1047861694923887</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05352253788660058</v>
+        <v>0.04629522113306305</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>783572411.0140965</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1874339219.424225</v>
+        <v>2409348359.939221</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1054294470875302</v>
+        <v>0.1060119447182728</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04685038112712973</v>
+        <v>0.03745822826609553</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>120</v>
-      </c>
-      <c r="J41" t="n">
-        <v>937169696.2643228</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3062188323.037479</v>
+        <v>3171104984.244863</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07955855840600851</v>
+        <v>0.0840138925920164</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04001675373313968</v>
+        <v>0.03044315829503347</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>163</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1531094126.249946</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2630843624.560601</v>
+        <v>2023461677.770653</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1364977126523712</v>
+        <v>0.1595636927897416</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01687766076569308</v>
+        <v>0.01983444666832496</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>169</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1315421847.813421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1443774323.041128</v>
+        <v>1632974279.845083</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07618776477903068</v>
+        <v>0.08525462790442134</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02540896801442238</v>
+        <v>0.0362093600300856</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>721887156.902125</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1955307769.986235</v>
+        <v>1669052718.111501</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1232094777434522</v>
+        <v>0.1717495074620026</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04255792819289218</v>
+        <v>0.03619744346623482</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>977653871.3655374</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4023629016.80069</v>
+        <v>5288393619.37354</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1690390417405937</v>
+        <v>0.1519345852750886</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04590509143400945</v>
+        <v>0.046193353938242</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>175</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2011814479.30433</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4663105442.347033</v>
+        <v>3520088459.767025</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1224661522593472</v>
+        <v>0.1869210441004571</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03985993977412474</v>
+        <v>0.04080166828177143</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>133</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2331552757.892074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3864362592.577029</v>
+        <v>3662276565.948698</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08347295044561194</v>
+        <v>0.06663116998008009</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0283021575139001</v>
+        <v>0.03284806849844147</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>160</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1932181338.541367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1518248122.155992</v>
+        <v>1394996353.827211</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1768292740096604</v>
+        <v>0.1553499830484319</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03517725789613436</v>
+        <v>0.03191396427122278</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>759124090.2767224</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3004606033.644232</v>
+        <v>4175097780.754679</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1214888401862429</v>
+        <v>0.1614791773772798</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0509361187535919</v>
+        <v>0.03602923266706767</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>168</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1502303076.338482</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>994238462.2030998</v>
+        <v>1151355603.419635</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1332603169042683</v>
+        <v>0.1642786619135805</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04376273080673228</v>
+        <v>0.05109265905200188</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>497119316.0169121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4626120808.006843</v>
+        <v>3207327114.365788</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1341082946475379</v>
+        <v>0.1212891304996911</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05978732199558407</v>
+        <v>0.05735336790640039</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>203</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2313060423.655903</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3088485007.487707</v>
+        <v>2974798760.406163</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1991927183395563</v>
+        <v>0.1671401010543611</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03379514836064152</v>
+        <v>0.02527479307452398</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>143</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1544242530.124439</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4685529593.310563</v>
+        <v>3532423228.219332</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1271679652223955</v>
+        <v>0.1274451940307865</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03364980669822036</v>
+        <v>0.05275046535967953</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>159</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2342764914.593491</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4395134852.102625</v>
+        <v>3025031331.198079</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1773085350709851</v>
+        <v>0.1873953023389785</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02770353592201817</v>
+        <v>0.03196072342698121</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2197567418.399219</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1519044982.160749</v>
+        <v>1465317403.799873</v>
       </c>
       <c r="F56" t="n">
-        <v>0.139386228832416</v>
+        <v>0.1370478403806848</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04168299451964677</v>
+        <v>0.03727472607990988</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>759522530.5553266</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3976914578.484535</v>
+        <v>3982863417.733082</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1844216932147913</v>
+        <v>0.1170235931385524</v>
       </c>
       <c r="G57" t="n">
-        <v>0.021540676177239</v>
+        <v>0.02226988449348641</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>156</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1988457375.693269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1505554093.583979</v>
+        <v>1518823417.635511</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1965919749789938</v>
+        <v>0.1253120529286966</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03956676208910373</v>
+        <v>0.0313543307011445</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>752777077.4557747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4419919793.673191</v>
+        <v>5238733810.221441</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0842754743480347</v>
+        <v>0.1168278791966517</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03306292657938812</v>
+        <v>0.04366771037571904</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>138</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2209959852.537532</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2405375806.962821</v>
+        <v>2990226247.800264</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1773885164311055</v>
+        <v>0.204890331616449</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02127492597931779</v>
+        <v>0.0300369034780222</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>156</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1202687911.484287</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2730851493.976462</v>
+        <v>2534764112.713235</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1123141138111455</v>
+        <v>0.1640271397742915</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02915594042156971</v>
+        <v>0.02036000987772992</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>169</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1365425752.860729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1311674375.409218</v>
+        <v>1596753239.498324</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1383864898835671</v>
+        <v>0.1409084129707061</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04115575587162026</v>
+        <v>0.04032931506864298</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>655837142.5070343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4788593743.335757</v>
+        <v>3479872021.394671</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06479074743383174</v>
+        <v>0.1012381190974017</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03046517092586008</v>
+        <v>0.0365591511864584</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>139</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2394296898.916147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5134996408.266247</v>
+        <v>5297871302.498564</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1614744279233949</v>
+        <v>0.1580763163372752</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02456278276287829</v>
+        <v>0.02478813187296264</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>153</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2567498319.85272</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4106582354.941909</v>
+        <v>4920382844.436844</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1084406110728356</v>
+        <v>0.1156877803886684</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02301282398701919</v>
+        <v>0.02916501511190052</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>176</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2053291189.721654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4298513843.1371</v>
+        <v>5047932897.89315</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1303418052923634</v>
+        <v>0.1389053285260937</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04235367362468665</v>
+        <v>0.04075982133733817</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>146</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2149256911.169966</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2149014739.96737</v>
+        <v>2691290751.31764</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08808418411591552</v>
+        <v>0.07300380769035053</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03153951533660591</v>
+        <v>0.05145693342630971</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>158</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1074507460.326573</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4037146148.716581</v>
+        <v>6051213739.972695</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1462950562277687</v>
+        <v>0.1314921818190984</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03812814421442302</v>
+        <v>0.04207931122939666</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>156</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2018573072.420926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1938719807.609613</v>
+        <v>1911381462.557604</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1815615633691113</v>
+        <v>0.1280003442001027</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0530088252814362</v>
+        <v>0.05944714995392526</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>969359900.8357487</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3221423090.597105</v>
+        <v>3625025953.017729</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09007785920197323</v>
+        <v>0.09049922037622192</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03611843405298282</v>
+        <v>0.03863737241838019</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>141</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1610711536.730814</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5239448081.852324</v>
+        <v>4416270119.717981</v>
       </c>
       <c r="F71" t="n">
-        <v>0.181827214982624</v>
+        <v>0.1310786817676468</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03091125836579292</v>
+        <v>0.03199477824613484</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>179</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2619724164.534835</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1372399542.520775</v>
+        <v>1782028013.618844</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08009599934396629</v>
+        <v>0.09560984739448884</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03574345862701088</v>
+        <v>0.04222275919989198</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>686199818.8446724</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2428608385.371092</v>
+        <v>2801390632.714545</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08766879886139411</v>
+        <v>0.07710252854617759</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03870843833518081</v>
+        <v>0.03628543332875872</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>186</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1214304241.024514</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3538919980.73708</v>
+        <v>3765261748.838132</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1275773862640027</v>
+        <v>0.1753607957968005</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03030185408243445</v>
+        <v>0.03445957300197178</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>167</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1769460009.219766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1740549862.492665</v>
+        <v>1677377785.039952</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1637281333673673</v>
+        <v>0.1578800402020534</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03333987671567864</v>
+        <v>0.03607311993101942</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>870274919.7247964</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4334668304.423829</v>
+        <v>4930887510.664567</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1186544391923288</v>
+        <v>0.07952258350291475</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02558929209706344</v>
+        <v>0.03327146927226705</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2167334150.985932</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1571355964.24187</v>
+        <v>2001803637.291841</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1157754163586833</v>
+        <v>0.1536168593672383</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02291482131129921</v>
+        <v>0.02017229191389942</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>785677980.399058</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4142791493.004056</v>
+        <v>4278750616.006672</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1302209493162794</v>
+        <v>0.1268928539945054</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04498156415421353</v>
+        <v>0.03660687535137377</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>171</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2071395702.039631</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1419774865.219708</v>
+        <v>1539213396.981186</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1245695860179249</v>
+        <v>0.1321036159643016</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04023155565557697</v>
+        <v>0.02572043813090008</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>709887452.7766361</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4103199821.397879</v>
+        <v>4175245777.961774</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09657151026237787</v>
+        <v>0.07560778778900774</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03628785376084428</v>
+        <v>0.0294376344342709</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2051599915.307225</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4700050448.26429</v>
+        <v>4222127759.54498</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1206558977097409</v>
+        <v>0.1102807315421061</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02423884582381049</v>
+        <v>0.02145358240223927</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2350025213.341651</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4280449952.588103</v>
+        <v>3480282086.328011</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1807850347446919</v>
+        <v>0.1844718097644163</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02484658144521858</v>
+        <v>0.02570240825654563</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>172</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2140225000.427632</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1675893580.617398</v>
+        <v>1856257112.491606</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1449753008303233</v>
+        <v>0.1084512497135905</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04061873189110496</v>
+        <v>0.03449641250076801</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>837946735.32234</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2097115633.046488</v>
+        <v>2517517147.708143</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07381852410177071</v>
+        <v>0.08112636022744346</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03950070174323708</v>
+        <v>0.03291419109570257</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1048557807.338225</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2784015590.56223</v>
+        <v>2887438240.424691</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1358996388776269</v>
+        <v>0.1294792384171333</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03894338891852468</v>
+        <v>0.04699701482619192</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>184</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1392007831.612149</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1923144295.571904</v>
+        <v>2792306159.37036</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1527731301589106</v>
+        <v>0.1196861688706579</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01885785504986542</v>
+        <v>0.02451904632293183</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>961572164.7513636</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1093125158.756736</v>
+        <v>1053599412.339327</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1867221749882339</v>
+        <v>0.1714341700289769</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0348421367508913</v>
+        <v>0.03750704365114816</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>546562607.5910707</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2533340062.801208</v>
+        <v>3546840354.948633</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1511551303676528</v>
+        <v>0.1247979013740579</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03816119477959588</v>
+        <v>0.03230743449375376</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>196</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1266670015.761088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3182593998.620744</v>
+        <v>2542076869.811321</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1171853158824126</v>
+        <v>0.1066581679467215</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03886663976225885</v>
+        <v>0.03991338347601944</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>167</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1591297024.051578</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1790385561.63982</v>
+        <v>1826178936.369103</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1105828496267489</v>
+        <v>0.1243872736313125</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05179137619755431</v>
+        <v>0.05514112793346838</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>895192812.7045411</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1614984792.856522</v>
+        <v>1693485276.80127</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1765809157471864</v>
+        <v>0.1460168348866232</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05367912123964373</v>
+        <v>0.05830720503437255</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>807492420.0222976</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2923978793.558249</v>
+        <v>1973452116.645124</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07962602440906316</v>
+        <v>0.09102695211613009</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03207602236354879</v>
+        <v>0.03278810946365029</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>134</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1461989412.790621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4603148065.285664</v>
+        <v>4223101413.222036</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09508240451218672</v>
+        <v>0.1417624592838221</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04593720512261092</v>
+        <v>0.0332479435289063</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>150</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2301573994.295731</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2150834772.769417</v>
+        <v>2375549366.651484</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1123260261565498</v>
+        <v>0.1174362182862113</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03647001302094052</v>
+        <v>0.03562053027940067</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1075417404.375794</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2808416841.436259</v>
+        <v>2255378082.694502</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1094791359829131</v>
+        <v>0.1234725074818641</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05214244951014423</v>
+        <v>0.0406427848077347</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>119</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1404208434.437749</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1544828460.912465</v>
+        <v>1634641788.857385</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09335632134980212</v>
+        <v>0.09434031103635442</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0472039056835004</v>
+        <v>0.04493369621570082</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>772414266.0404662</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3526464614.095835</v>
+        <v>3732725020.577734</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1677056844784919</v>
+        <v>0.1681544932021139</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02554568058257303</v>
+        <v>0.01946411564605882</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>158</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1763232325.360988</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3189598858.159024</v>
+        <v>3713542006.888496</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08447368536776088</v>
+        <v>0.1269044239541888</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02621711289512942</v>
+        <v>0.02732457956993416</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>137</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1594799426.638174</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2185980827.706189</v>
+        <v>2674672943.518055</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1002905859476994</v>
+        <v>0.1355953279829741</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0263095666224323</v>
+        <v>0.03532280224356715</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>155</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1092990340.821343</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4195479912.431296</v>
+        <v>3253571300.640627</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1102441133247119</v>
+        <v>0.1319463812793778</v>
       </c>
       <c r="G100" t="n">
-        <v>0.018890337274193</v>
+        <v>0.02115694615007821</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>151</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2097740042.527481</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2430371467.261552</v>
+        <v>2221347606.698711</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2227878936230858</v>
+        <v>0.1887604910373365</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03569125905739701</v>
+        <v>0.05821215192304093</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>199</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1215185747.43781</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_492.xlsx
+++ b/output/fit_clients/fit_round_492.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2203820696.329644</v>
+        <v>2409978112.138386</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09679460144970742</v>
+        <v>0.1123193214064407</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04185376738008707</v>
+        <v>0.03834565444891039</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2127697208.384032</v>
+        <v>2275402768.575226</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1797494435693572</v>
+        <v>0.1810678542348041</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04799709945010841</v>
+        <v>0.03045737173057755</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4799296305.946013</v>
+        <v>4487198528.973363</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1384521104492215</v>
+        <v>0.1535804714592181</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03009781023687373</v>
+        <v>0.02889209038894707</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3163615889.509409</v>
+        <v>4240185937.74301</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07975154768850373</v>
+        <v>0.1101966614956501</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03207708302019533</v>
+        <v>0.04607325501230345</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2147689459.471663</v>
+        <v>2701677522.540851</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1387558446524688</v>
+        <v>0.1490088276369209</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04712379987913567</v>
+        <v>0.05198305880689871</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3147509745.695954</v>
+        <v>3110018643.721907</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07568865068121673</v>
+        <v>0.07433992838336136</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02991553237444937</v>
+        <v>0.04862915958236025</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3287021990.135402</v>
+        <v>3769484137.451835</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1563493385455385</v>
+        <v>0.1593862937649265</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0229363845994707</v>
+        <v>0.03068070149293359</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1952562126.947186</v>
+        <v>1930056035.07747</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1507345169107938</v>
+        <v>0.1763471557312639</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0275628945695261</v>
+        <v>0.02714111400483978</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4927800703.447311</v>
+        <v>5666942690.794718</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1417551363334987</v>
+        <v>0.2129742242043564</v>
       </c>
       <c r="G10" t="n">
-        <v>0.034749530843271</v>
+        <v>0.0348350698254439</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2947222476.897881</v>
+        <v>3426668541.714934</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1312359901007426</v>
+        <v>0.1795408720228716</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0419229383659022</v>
+        <v>0.04734320457800218</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2979641327.098424</v>
+        <v>2350444044.806295</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1547650930680673</v>
+        <v>0.1871981348554085</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04660142623590226</v>
+        <v>0.04128072432509052</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4156853516.090496</v>
+        <v>4511703636.744686</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07882647298363411</v>
+        <v>0.09522958101092688</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02442072350243183</v>
+        <v>0.02388858646931995</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3449472768.858161</v>
+        <v>3784177749.345845</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1677094874769263</v>
+        <v>0.1531357069923528</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02869989288883584</v>
+        <v>0.0407484316904095</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1822050393.661588</v>
+        <v>1837920823.752163</v>
       </c>
       <c r="F15" t="n">
-        <v>0.100553973200112</v>
+        <v>0.08224720408062043</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03364134721232176</v>
+        <v>0.0373362262428365</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1852042600.911279</v>
+        <v>2472915407.782986</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09034640847677224</v>
+        <v>0.08899438318547884</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03425204187774472</v>
+        <v>0.04485818496437253</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3403662495.306273</v>
+        <v>4876752325.326885</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1347611666655491</v>
+        <v>0.1364685176473336</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04004664407265307</v>
+        <v>0.04105509185258509</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3275512825.879212</v>
+        <v>3423775939.254897</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1589467275225076</v>
+        <v>0.148884908414352</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03374033292751609</v>
+        <v>0.02478410116225431</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1376543233.361104</v>
+        <v>1074888732.854714</v>
       </c>
       <c r="F19" t="n">
-        <v>0.13480729599359</v>
+        <v>0.1868244831305764</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02180030520673607</v>
+        <v>0.02514447474314575</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2281985739.292341</v>
+        <v>2332831087.226385</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1097724711675028</v>
+        <v>0.1604168601587884</v>
       </c>
       <c r="G20" t="n">
-        <v>0.030092088928424</v>
+        <v>0.01927459071575901</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2424103553.636176</v>
+        <v>1727274247.56943</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07203995574211977</v>
+        <v>0.0648483599700706</v>
       </c>
       <c r="G21" t="n">
-        <v>0.034513961129359</v>
+        <v>0.03059099896214577</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2464525516.979775</v>
+        <v>3124710513.644775</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1037630715069082</v>
+        <v>0.133597223883972</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04655220992376816</v>
+        <v>0.05620174666693984</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1459183808.773302</v>
+        <v>1123502646.188852</v>
       </c>
       <c r="F23" t="n">
-        <v>0.157551436518915</v>
+        <v>0.1445801077633144</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04649087918900562</v>
+        <v>0.04684521791072366</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3521237407.540384</v>
+        <v>2627370693.456496</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1484928788853176</v>
+        <v>0.1201460186582278</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02713593677631526</v>
+        <v>0.03111605861636052</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1020144439.083711</v>
+        <v>1222467461.413543</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09258853202585816</v>
+        <v>0.1086276005504707</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02357190252488304</v>
+        <v>0.02848082280022168</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1339513191.020694</v>
+        <v>1194568433.458272</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09235251944250515</v>
+        <v>0.08195136506528884</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03184516950528159</v>
+        <v>0.02846663907404694</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4649790613.561774</v>
+        <v>4029541332.484263</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1370275730447632</v>
+        <v>0.1121717335602613</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02599622205913192</v>
+        <v>0.01844529481135709</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2366632338.254104</v>
+        <v>3318525085.397313</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1410856401674804</v>
+        <v>0.1182567767019032</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03171966149189606</v>
+        <v>0.03494429129363685</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4978369054.099077</v>
+        <v>5856236284.451503</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1500449090261675</v>
+        <v>0.1469204022363755</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03207449552447316</v>
+        <v>0.04042742772510644</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2179149345.968102</v>
+        <v>1600908997.109344</v>
       </c>
       <c r="F30" t="n">
-        <v>0.131973406580168</v>
+        <v>0.1207867916633772</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02715840494225462</v>
+        <v>0.02779703477907676</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>933110455.6933178</v>
+        <v>1201905531.696104</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07162490120063517</v>
+        <v>0.07598569642614743</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04346440906939351</v>
+        <v>0.05041109100947187</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1298603980.966254</v>
+        <v>1867570275.862303</v>
       </c>
       <c r="F32" t="n">
-        <v>0.080191985034124</v>
+        <v>0.08437709708927792</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03136072130118114</v>
+        <v>0.0374365646182933</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2965678218.522087</v>
+        <v>2540121035.955454</v>
       </c>
       <c r="F33" t="n">
-        <v>0.179987579004951</v>
+        <v>0.1553730024960838</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04562898080538041</v>
+        <v>0.0466415954976739</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1545248758.468461</v>
+        <v>1225634033.505773</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08453687236190302</v>
+        <v>0.1219778687784693</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02043459599027618</v>
+        <v>0.02005722975149433</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1161626245.296244</v>
+        <v>1114524317.067524</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1081549235007541</v>
+        <v>0.117329577986249</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04440892452261908</v>
+        <v>0.03086381880015368</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2152154965.220423</v>
+        <v>3179972241.77885</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1670641513377984</v>
+        <v>0.1261335201504734</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02683268986662255</v>
+        <v>0.02787649137663375</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2638163177.333627</v>
+        <v>2073244646.310141</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0892711306959084</v>
+        <v>0.1013900732674945</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03760096404550184</v>
+        <v>0.03000684731214315</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1811370920.077305</v>
+        <v>1543184486.4796</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08712993740941388</v>
+        <v>0.08551407548992165</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03192687408796674</v>
+        <v>0.0323444418335877</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1665261609.810926</v>
+        <v>2226068912.868234</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1814064429535491</v>
+        <v>0.178693194635321</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02163952813717329</v>
+        <v>0.02843262570638354</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1345378932.03114</v>
+        <v>1192276586.974896</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1047861694923887</v>
+        <v>0.1496431093054437</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04629522113306305</v>
+        <v>0.04442949450316559</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2409348359.939221</v>
+        <v>2728586020.363349</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1060119447182728</v>
+        <v>0.1475601201819816</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03745822826609553</v>
+        <v>0.04138512948146134</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3171104984.244863</v>
+        <v>4331687216.964794</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0840138925920164</v>
+        <v>0.1060373883677913</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03044315829503347</v>
+        <v>0.04571574108999372</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2023461677.770653</v>
+        <v>3022722736.400479</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1595636927897416</v>
+        <v>0.1909695086687593</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01983444666832496</v>
+        <v>0.0186681835672459</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1632974279.845083</v>
+        <v>1498542020.112582</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08525462790442134</v>
+        <v>0.0788339871639132</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0362093600300856</v>
+        <v>0.02657877211062359</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1669052718.111501</v>
+        <v>1686365219.555715</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1717495074620026</v>
+        <v>0.1350652728173909</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03619744346623482</v>
+        <v>0.03841394634519317</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5288393619.37354</v>
+        <v>5474314336.633956</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1519345852750886</v>
+        <v>0.1486667489670037</v>
       </c>
       <c r="G46" t="n">
-        <v>0.046193353938242</v>
+        <v>0.04314979911774627</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3520088459.767025</v>
+        <v>3847960191.747453</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1869210441004571</v>
+        <v>0.1458309230141021</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04080166828177143</v>
+        <v>0.03657749133157179</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3662276565.948698</v>
+        <v>3390437082.319031</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06663116998008009</v>
+        <v>0.07925529199548267</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03284806849844147</v>
+        <v>0.03738887005889786</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1394996353.827211</v>
+        <v>1609471826.355457</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1553499830484319</v>
+        <v>0.1297635924102457</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03191396427122278</v>
+        <v>0.041094000864995</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4175097780.754679</v>
+        <v>2785138150.384175</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1614791773772798</v>
+        <v>0.1126245432524605</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03602923266706767</v>
+        <v>0.04641447551816499</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1151355603.419635</v>
+        <v>1541558113.790255</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1642786619135805</v>
+        <v>0.1713983915637214</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05109265905200188</v>
+        <v>0.03326849746714262</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3207327114.365788</v>
+        <v>4605344560.90974</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1212891304996911</v>
+        <v>0.08812478903574769</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05735336790640039</v>
+        <v>0.04609801440287208</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2974798760.406163</v>
+        <v>3627416445.113212</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1671401010543611</v>
+        <v>0.1627467765409654</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02527479307452398</v>
+        <v>0.02648277257470254</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3532423228.219332</v>
+        <v>3131565450.229976</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1274451940307865</v>
+        <v>0.1538291008953697</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05275046535967953</v>
+        <v>0.04016207003911021</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3025031331.198079</v>
+        <v>4611153943.333615</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1873953023389785</v>
+        <v>0.2175357566313207</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03196072342698121</v>
+        <v>0.0275098242078405</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1465317403.799873</v>
+        <v>1650912558.277544</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1370478403806848</v>
+        <v>0.1197336026703849</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03727472607990988</v>
+        <v>0.05305969445827231</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3982863417.733082</v>
+        <v>4135236270.084746</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1170235931385524</v>
+        <v>0.121545349586753</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02226988449348641</v>
+        <v>0.02399548705810142</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1518823417.635511</v>
+        <v>1689147408.304235</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1253120529286966</v>
+        <v>0.1521293986432488</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0313543307011445</v>
+        <v>0.02482465331282327</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5238733810.221441</v>
+        <v>3313907791.682956</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1168278791966517</v>
+        <v>0.08657238897443457</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04366771037571904</v>
+        <v>0.03454134286501297</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2990226247.800264</v>
+        <v>2738731685.255374</v>
       </c>
       <c r="F60" t="n">
-        <v>0.204890331616449</v>
+        <v>0.2002032464275833</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0300369034780222</v>
+        <v>0.02555014319990207</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2534764112.713235</v>
+        <v>2486112004.751156</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1640271397742915</v>
+        <v>0.1298831087671243</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02036000987772992</v>
+        <v>0.02926014876026775</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1596753239.498324</v>
+        <v>1579159832.756295</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1409084129707061</v>
+        <v>0.1692051777159247</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04032931506864298</v>
+        <v>0.03551684461125724</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3479872021.394671</v>
+        <v>5153598060.496851</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1012381190974017</v>
+        <v>0.1004776818935394</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0365591511864584</v>
+        <v>0.0292542631731311</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5297871302.498564</v>
+        <v>4378417796.134437</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1580763163372752</v>
+        <v>0.1470627143416598</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02478813187296264</v>
+        <v>0.02792716738329345</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4920382844.436844</v>
+        <v>3717652523.588552</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1156877803886684</v>
+        <v>0.1617133329723848</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02916501511190052</v>
+        <v>0.03008076857756328</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,13 +2278,13 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5047932897.89315</v>
+        <v>5215636658.497092</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1389053285260937</v>
+        <v>0.1441521608333736</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04075982133733817</v>
+        <v>0.04596050468729384</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2691290751.31764</v>
+        <v>2345741231.381764</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07300380769035053</v>
+        <v>0.0776137937511274</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05145693342630971</v>
+        <v>0.05031667191280316</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6051213739.972695</v>
+        <v>3803427100.720671</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1314921818190984</v>
+        <v>0.1090103266216795</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04207931122939666</v>
+        <v>0.04230799564547816</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1911381462.557604</v>
+        <v>1990951765.397257</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1280003442001027</v>
+        <v>0.1710055462660786</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05944714995392526</v>
+        <v>0.04284395195555372</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3625025953.017729</v>
+        <v>2243741257.195298</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09049922037622192</v>
+        <v>0.07708549958966468</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03863737241838019</v>
+        <v>0.03975551624261019</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4416270119.717981</v>
+        <v>4208230704.706227</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1310786817676468</v>
+        <v>0.1547508518058771</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03199477824613484</v>
+        <v>0.03237538350725742</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1782028013.618844</v>
+        <v>1382836250.140951</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09560984739448884</v>
+        <v>0.1063119132826297</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04222275919989198</v>
+        <v>0.04526044941067174</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2801390632.714545</v>
+        <v>3065303613.685174</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07710252854617759</v>
+        <v>0.1088341208094313</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03628543332875872</v>
+        <v>0.03282309945704091</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3765261748.838132</v>
+        <v>2602644545.175414</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1753607957968005</v>
+        <v>0.1749401163781614</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03445957300197178</v>
+        <v>0.02256363101514569</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1677377785.039952</v>
+        <v>2048543441.049685</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1578800402020534</v>
+        <v>0.1609235826651668</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03607311993101942</v>
+        <v>0.03182338304816645</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4930887510.664567</v>
+        <v>4705789605.061124</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07952258350291475</v>
+        <v>0.08584198999936987</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03327146927226705</v>
+        <v>0.02737538399797177</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2001803637.291841</v>
+        <v>1637826367.73446</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1536168593672383</v>
+        <v>0.1242403097022978</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02017229191389942</v>
+        <v>0.02592594255388947</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4278750616.006672</v>
+        <v>4248978000.974472</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1268928539945054</v>
+        <v>0.08876231899881788</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03660687535137377</v>
+        <v>0.03705685308158253</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1539213396.981186</v>
+        <v>1584124858.281838</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1321036159643016</v>
+        <v>0.152280076914712</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02572043813090008</v>
+        <v>0.03665064108185512</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4175245777.961774</v>
+        <v>4119821417.66497</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07560778778900774</v>
+        <v>0.1092921924962668</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0294376344342709</v>
+        <v>0.02346036759561096</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4222127759.54498</v>
+        <v>4374540434.530242</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1102807315421061</v>
+        <v>0.1345152458364904</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02145358240223927</v>
+        <v>0.03157733835807692</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3480282086.328011</v>
+        <v>4804536914.795859</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1844718097644163</v>
+        <v>0.158739281415165</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02570240825654563</v>
+        <v>0.01793882361375461</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1856257112.491606</v>
+        <v>2427755911.511502</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1084512497135905</v>
+        <v>0.1179020926114782</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03449641250076801</v>
+        <v>0.03807790721164569</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2517517147.708143</v>
+        <v>1918040011.138267</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08112636022744346</v>
+        <v>0.1137832839154854</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03291419109570257</v>
+        <v>0.04966294773184472</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2887438240.424691</v>
+        <v>2628289434.254274</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1294792384171333</v>
+        <v>0.1795117949458438</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04699701482619192</v>
+        <v>0.05509617963495828</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2792306159.37036</v>
+        <v>2090161471.652868</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1196861688706579</v>
+        <v>0.1610203449695959</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02451904632293183</v>
+        <v>0.02488957083871023</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1053599412.339327</v>
+        <v>1454775497.523615</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1714341700289769</v>
+        <v>0.1235337707296321</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03750704365114816</v>
+        <v>0.03004314674855574</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3546840354.948633</v>
+        <v>3073771757.878131</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1247979013740579</v>
+        <v>0.1440631822303472</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03230743449375376</v>
+        <v>0.02540067472621624</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2542076869.811321</v>
+        <v>3095683407.347888</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1066581679467215</v>
+        <v>0.1288653548398701</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03991338347601944</v>
+        <v>0.029064102420725</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1826178936.369103</v>
+        <v>1867344584.176188</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1243872736313125</v>
+        <v>0.1366285076378789</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05514112793346838</v>
+        <v>0.0489459010338248</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1693485276.80127</v>
+        <v>1822596673.159915</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1460168348866232</v>
+        <v>0.1768763434645923</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05830720503437255</v>
+        <v>0.0576787293279542</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1973452116.645124</v>
+        <v>2878408465.924052</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09102695211613009</v>
+        <v>0.09049266452736156</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03278810946365029</v>
+        <v>0.03790810177002631</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4223101413.222036</v>
+        <v>4416334534.582052</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1417624592838221</v>
+        <v>0.1226607076512029</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0332479435289063</v>
+        <v>0.05298319870973645</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2375549366.651484</v>
+        <v>2000128944.259605</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1174362182862113</v>
+        <v>0.1374485000410699</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03562053027940067</v>
+        <v>0.03355719301689031</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2255378082.694502</v>
+        <v>2235742975.823018</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1234725074818641</v>
+        <v>0.1293442934509602</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0406427848077347</v>
+        <v>0.05154317241688234</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1634641788.857385</v>
+        <v>2360158086.111655</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09434031103635442</v>
+        <v>0.1401142043831798</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04493369621570082</v>
+        <v>0.0293397545204588</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3732725020.577734</v>
+        <v>3338484654.473266</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1681544932021139</v>
+        <v>0.1071397253163979</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01946411564605882</v>
+        <v>0.0182802476763095</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3713542006.888496</v>
+        <v>3012115261.26666</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1269044239541888</v>
+        <v>0.08888735143104208</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02732457956993416</v>
+        <v>0.02386656692016643</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2674672943.518055</v>
+        <v>2300447871.992364</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1355953279829741</v>
+        <v>0.1437090965706921</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03532280224356715</v>
+        <v>0.03387925438955688</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3253571300.640627</v>
+        <v>3691900424.526308</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1319463812793778</v>
+        <v>0.170273187652084</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02115694615007821</v>
+        <v>0.0215600254464127</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2221347606.698711</v>
+        <v>2325138876.615212</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1887604910373365</v>
+        <v>0.2033442365060593</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05821215192304093</v>
+        <v>0.0574809043644185</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_492.xlsx
+++ b/output/fit_clients/fit_round_492.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2409978112.138386</v>
+        <v>1902165734.615439</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1123193214064407</v>
+        <v>0.07061822753851023</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03834565444891039</v>
+        <v>0.03078068348741513</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2275402768.575226</v>
+        <v>2210011800.234478</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1810678542348041</v>
+        <v>0.173811270499732</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03045737173057755</v>
+        <v>0.04053820159817795</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4487198528.973363</v>
+        <v>3534512458.300637</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1535804714592181</v>
+        <v>0.1074442751475877</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02889209038894707</v>
+        <v>0.03595315631278498</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>248</v>
+      </c>
+      <c r="J4" t="n">
+        <v>491</v>
+      </c>
+      <c r="K4" t="n">
+        <v>27.13009151900846</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4240185937.74301</v>
+        <v>3894738620.646206</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1101966614956501</v>
+        <v>0.06997734871773052</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04607325501230345</v>
+        <v>0.04128624601323989</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>208</v>
+      </c>
+      <c r="J5" t="n">
+        <v>492</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2701677522.540851</v>
+        <v>2465787328.25294</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1490088276369209</v>
+        <v>0.1355055345576095</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05198305880689871</v>
+        <v>0.0384415193705898</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3110018643.721907</v>
+        <v>2364229888.320353</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07433992838336136</v>
+        <v>0.1006532349053208</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04862915958236025</v>
+        <v>0.04770811879985276</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +713,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3769484137.451835</v>
+        <v>3657534428.808246</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1593862937649265</v>
+        <v>0.1612477980831605</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03068070149293359</v>
+        <v>0.02319389441312543</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>140</v>
+      </c>
+      <c r="J8" t="n">
+        <v>492</v>
+      </c>
+      <c r="K8" t="n">
+        <v>39.41274614388568</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1930056035.07747</v>
+        <v>1701909111.718677</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1763471557312639</v>
+        <v>0.1697621040235944</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02714111400483978</v>
+        <v>0.02864145979023765</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5666942690.794718</v>
+        <v>4613274413.676988</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2129742242043564</v>
+        <v>0.1896095798507454</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0348350698254439</v>
+        <v>0.03891924514320818</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>371</v>
+      </c>
+      <c r="J10" t="n">
+        <v>492</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3426668541.714934</v>
+        <v>2801465137.952604</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1795408720228716</v>
+        <v>0.1766903243929069</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04734320457800218</v>
+        <v>0.03417839285066186</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>206</v>
+      </c>
+      <c r="J11" t="n">
+        <v>489</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2350444044.806295</v>
+        <v>2820438841.884141</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1871981348554085</v>
+        <v>0.1379444117216162</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04128072432509052</v>
+        <v>0.05373952856216822</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4511703636.744686</v>
+        <v>4849713371.185555</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09522958101092688</v>
+        <v>0.06257415477749471</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02388858646931995</v>
+        <v>0.02769099669373732</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>254</v>
+      </c>
+      <c r="J13" t="n">
+        <v>492</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3784177749.345845</v>
+        <v>3032448725.027623</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1531357069923528</v>
+        <v>0.1753598030208948</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0407484316904095</v>
+        <v>0.04361252940549327</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>116</v>
+      </c>
+      <c r="J14" t="n">
+        <v>490</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1837920823.752163</v>
+        <v>1516811191.707402</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08224720408062043</v>
+        <v>0.1065301412468361</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0373362262428365</v>
+        <v>0.03794863150949419</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2472915407.782986</v>
+        <v>2799186841.793929</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08899438318547884</v>
+        <v>0.08611349707367801</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04485818496437253</v>
+        <v>0.0405936816912643</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4876752325.326885</v>
+        <v>5163907359.172832</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1364685176473336</v>
+        <v>0.1423542621804621</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04105509185258509</v>
+        <v>0.05217711406191945</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>240</v>
+      </c>
+      <c r="J17" t="n">
+        <v>491</v>
+      </c>
+      <c r="K17" t="n">
+        <v>26.75042260227092</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3423775939.254897</v>
+        <v>3139220392.279584</v>
       </c>
       <c r="F18" t="n">
-        <v>0.148884908414352</v>
+        <v>0.1199751248717276</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02478410116225431</v>
+        <v>0.03094827123336787</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>131</v>
+      </c>
+      <c r="J18" t="n">
+        <v>488</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1074888732.854714</v>
+        <v>1005253780.427624</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1868244831305764</v>
+        <v>0.178380405484894</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02514447474314575</v>
+        <v>0.02335297265308906</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2332831087.226385</v>
+        <v>1988087649.451596</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1604168601587884</v>
+        <v>0.09794244941351474</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01927459071575901</v>
+        <v>0.03038442626111428</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1727274247.56943</v>
+        <v>2691556504.669984</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0648483599700706</v>
+        <v>0.07707514158298817</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03059099896214577</v>
+        <v>0.04045079792636618</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3124710513.644775</v>
+        <v>3566936778.994778</v>
       </c>
       <c r="F22" t="n">
-        <v>0.133597223883972</v>
+        <v>0.1227314334668669</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05620174666693984</v>
+        <v>0.04377293271469002</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>144</v>
+      </c>
+      <c r="J22" t="n">
+        <v>492</v>
+      </c>
+      <c r="K22" t="n">
+        <v>42.30688222292596</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1123502646.188852</v>
+        <v>1208864979.978743</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1445801077633144</v>
+        <v>0.1190604761938376</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04684521791072366</v>
+        <v>0.05041061238450947</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2627370693.456496</v>
+        <v>3144481233.777092</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1201460186582278</v>
+        <v>0.1058632446389226</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03111605861636052</v>
+        <v>0.0231952515632704</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>155</v>
+      </c>
+      <c r="J24" t="n">
+        <v>489</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1222467461.413543</v>
+        <v>1115884514.088433</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1086276005504707</v>
+        <v>0.08658674509448754</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02848082280022168</v>
+        <v>0.02351491912315658</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1194568433.458272</v>
+        <v>1398753402.90401</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08195136506528884</v>
+        <v>0.1049987611342588</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02846663907404694</v>
+        <v>0.03568705721122654</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4029541332.484263</v>
+        <v>3224944835.902088</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1121717335602613</v>
+        <v>0.1171147158917077</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01844529481135709</v>
+        <v>0.0198408530957589</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>220</v>
+      </c>
+      <c r="J27" t="n">
+        <v>491</v>
+      </c>
+      <c r="K27" t="n">
+        <v>23.70023314834884</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3318525085.397313</v>
+        <v>2525368004.58688</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1182567767019032</v>
+        <v>0.1457988353288036</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03494429129363685</v>
+        <v>0.04654074840295108</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>122</v>
+      </c>
+      <c r="J28" t="n">
+        <v>491</v>
+      </c>
+      <c r="K28" t="n">
+        <v>21.83030209409027</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1458,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5856236284.451503</v>
+        <v>4873224896.102798</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1469204022363755</v>
+        <v>0.1144731908814453</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04042742772510644</v>
+        <v>0.03242486507294591</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>387</v>
+      </c>
+      <c r="J29" t="n">
+        <v>491</v>
+      </c>
+      <c r="K29" t="n">
+        <v>25.6845860343137</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1600908997.109344</v>
+        <v>2138913785.655166</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1207867916633772</v>
+        <v>0.1087454797615243</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02779703477907676</v>
+        <v>0.02520985337167921</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1201905531.696104</v>
+        <v>1130279410.314188</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07598569642614743</v>
+        <v>0.09905775782180432</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05041109100947187</v>
+        <v>0.04504228595518717</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1867570275.862303</v>
+        <v>1592724256.251308</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08437709708927792</v>
+        <v>0.0897232893635071</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0374365646182933</v>
+        <v>0.03767355782895225</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2540121035.955454</v>
+        <v>2338723833.574463</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1553730024960838</v>
+        <v>0.1795474129232973</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0466415954976739</v>
+        <v>0.04168121510449116</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1225634033.505773</v>
+        <v>989488042.1042203</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1219778687784693</v>
+        <v>0.1009840044007233</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02005722975149433</v>
+        <v>0.01770833330097262</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1114524317.067524</v>
+        <v>1263899846.588386</v>
       </c>
       <c r="F35" t="n">
-        <v>0.117329577986249</v>
+        <v>0.07541994856684534</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03086381880015368</v>
+        <v>0.03343190498051652</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3179972241.77885</v>
+        <v>2312975592.064958</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1261335201504734</v>
+        <v>0.1173492927425972</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02787649137663375</v>
+        <v>0.01982032217547459</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2073244646.310141</v>
+        <v>2766595925.734685</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1013900732674945</v>
+        <v>0.0852239553163246</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03000684731214315</v>
+        <v>0.03572172921446702</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1543184486.4796</v>
+        <v>1563593925.540493</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08551407548992165</v>
+        <v>0.1130011089362363</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0323444418335877</v>
+        <v>0.03835865056929693</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2226068912.868234</v>
+        <v>1410184832.20355</v>
       </c>
       <c r="F39" t="n">
-        <v>0.178693194635321</v>
+        <v>0.169733894602403</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02843262570638354</v>
+        <v>0.02024779886489281</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1192276586.974896</v>
+        <v>1380329780.331239</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1496431093054437</v>
+        <v>0.1578422029010509</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04442949450316559</v>
+        <v>0.05131021640949509</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1880,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2728586020.363349</v>
+        <v>2214095651.024158</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1475601201819816</v>
+        <v>0.1069035881512589</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04138512948146134</v>
+        <v>0.04578108579424289</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4331687216.964794</v>
+        <v>2695631797.288035</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1060373883677913</v>
+        <v>0.1123808310930245</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04571574108999372</v>
+        <v>0.02985639455433512</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>210</v>
+      </c>
+      <c r="J42" t="n">
+        <v>487</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3022722736.400479</v>
+        <v>1969707861.952228</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1909695086687593</v>
+        <v>0.1982318404545327</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0186681835672459</v>
+        <v>0.02289224370590064</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1498542020.112582</v>
+        <v>1495303481.935432</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0788339871639132</v>
+        <v>0.08473147261129674</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02657877211062359</v>
+        <v>0.03073533426063164</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1686365219.555715</v>
+        <v>2046659745.186295</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1350652728173909</v>
+        <v>0.178990143529934</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03841394634519317</v>
+        <v>0.04971014780717612</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2055,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5474314336.633956</v>
+        <v>4998208592.279277</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1486667489670037</v>
+        <v>0.1613006861436661</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04314979911774627</v>
+        <v>0.04302630671165903</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>289</v>
+      </c>
+      <c r="J46" t="n">
+        <v>492</v>
+      </c>
+      <c r="K46" t="n">
+        <v>28.63418549599554</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2092,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3847960191.747453</v>
+        <v>3283915614.122546</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1458309230141021</v>
+        <v>0.1310658196977082</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03657749133157179</v>
+        <v>0.05779308004559516</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>223</v>
+      </c>
+      <c r="J47" t="n">
+        <v>489</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3390437082.319031</v>
+        <v>3753626450.731078</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07925529199548267</v>
+        <v>0.1029346624426909</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03738887005889786</v>
+        <v>0.0309407664106215</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>246</v>
+      </c>
+      <c r="J48" t="n">
+        <v>492</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1609471826.355457</v>
+        <v>1877336545.210984</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1297635924102457</v>
+        <v>0.1715901731756567</v>
       </c>
       <c r="G49" t="n">
-        <v>0.041094000864995</v>
+        <v>0.0346312530881463</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2785138150.384175</v>
+        <v>2629069944.718706</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1126245432524605</v>
+        <v>0.1290254803740427</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04641447551816499</v>
+        <v>0.04368167739044541</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>178</v>
+      </c>
+      <c r="J50" t="n">
+        <v>491</v>
+      </c>
+      <c r="K50" t="n">
+        <v>18.27539623660879</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1541558113.790255</v>
+        <v>1339543891.791004</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1713983915637214</v>
+        <v>0.1287480113489172</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03326849746714262</v>
+        <v>0.04869468681973551</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4605344560.90974</v>
+        <v>3559581956.104894</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08812478903574769</v>
+        <v>0.09123539759782248</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04609801440287208</v>
+        <v>0.04228690876649279</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>274</v>
+      </c>
+      <c r="J52" t="n">
+        <v>492</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3627416445.113212</v>
+        <v>2466918668.474417</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1627467765409654</v>
+        <v>0.197084542772637</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02648277257470254</v>
+        <v>0.02953135752713639</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>77</v>
+      </c>
+      <c r="J53" t="n">
+        <v>488</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3131565450.229976</v>
+        <v>4426537890.339893</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1538291008953697</v>
+        <v>0.1441622286373851</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04016207003911021</v>
+        <v>0.03657483765707189</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>259</v>
+      </c>
+      <c r="J54" t="n">
+        <v>491</v>
+      </c>
+      <c r="K54" t="n">
+        <v>26.7334402145437</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4611153943.333615</v>
+        <v>4333922743.667058</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2175357566313207</v>
+        <v>0.1932458510627477</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0275098242078405</v>
+        <v>0.01961711209740882</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>243</v>
+      </c>
+      <c r="J55" t="n">
+        <v>491</v>
+      </c>
+      <c r="K55" t="n">
+        <v>27.93151099876322</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1650912558.277544</v>
+        <v>1282421635.347919</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1197336026703849</v>
+        <v>0.1421526687337218</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05305969445827231</v>
+        <v>0.04670129568209393</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4135236270.084746</v>
+        <v>3274672168.173706</v>
       </c>
       <c r="F57" t="n">
-        <v>0.121545349586753</v>
+        <v>0.1587427645750537</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02399548705810142</v>
+        <v>0.02753563770492588</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>212</v>
+      </c>
+      <c r="J57" t="n">
+        <v>490</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1689147408.304235</v>
+        <v>1764538545.088154</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1521293986432488</v>
+        <v>0.1497586858465803</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02482465331282327</v>
+        <v>0.03702811742612131</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3313907791.682956</v>
+        <v>4269128222.720909</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08657238897443457</v>
+        <v>0.1230501961132946</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03454134286501297</v>
+        <v>0.03925793332876795</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>241</v>
+      </c>
+      <c r="J59" t="n">
+        <v>492</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2738731685.255374</v>
+        <v>2691855666.990915</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2002032464275833</v>
+        <v>0.1387529836644416</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02555014319990207</v>
+        <v>0.02582663706463165</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>101</v>
+      </c>
+      <c r="J60" t="n">
+        <v>491</v>
+      </c>
+      <c r="K60" t="n">
+        <v>27.5811925662945</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2486112004.751156</v>
+        <v>2084126914.973341</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1298831087671243</v>
+        <v>0.1762699979909127</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02926014876026775</v>
+        <v>0.02356268230858278</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1579159832.756295</v>
+        <v>1755214824.679094</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1692051777159247</v>
+        <v>0.1761926812531308</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03551684461125724</v>
+        <v>0.04445393454782956</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5153598060.496851</v>
+        <v>5318344015.415348</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1004776818935394</v>
+        <v>0.08064940969220125</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0292542631731311</v>
+        <v>0.03242850798291456</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>245</v>
+      </c>
+      <c r="J63" t="n">
+        <v>492</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4378417796.134437</v>
+        <v>4190018471.986279</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1470627143416598</v>
+        <v>0.1649937550804187</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02792716738329345</v>
+        <v>0.0240136603337065</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>245</v>
+      </c>
+      <c r="J64" t="n">
+        <v>491</v>
+      </c>
+      <c r="K64" t="n">
+        <v>26.87055888920939</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3717652523.588552</v>
+        <v>5589096439.978869</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1617133329723848</v>
+        <v>0.1136211205986448</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03008076857756328</v>
+        <v>0.02056349774645899</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>343</v>
+      </c>
+      <c r="J65" t="n">
+        <v>492</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2767,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5215636658.497092</v>
+        <v>4684519992.350102</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1441521608333736</v>
+        <v>0.1392114856937346</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04596050468729384</v>
+        <v>0.04244445018453855</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>244</v>
+      </c>
+      <c r="J66" t="n">
+        <v>491</v>
+      </c>
+      <c r="K66" t="n">
+        <v>26.9024935884404</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2345741231.381764</v>
+        <v>3315809999.461843</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0776137937511274</v>
+        <v>0.06382140950991903</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05031667191280316</v>
+        <v>0.03989355122012216</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3803427100.720671</v>
+        <v>5767474504.587293</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1090103266216795</v>
+        <v>0.144514239263413</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04230799564547816</v>
+        <v>0.03850192189436736</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>267</v>
+      </c>
+      <c r="J68" t="n">
+        <v>491</v>
+      </c>
+      <c r="K68" t="n">
+        <v>28.12932284234704</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1990951765.397257</v>
+        <v>1736125602.614047</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1710055462660786</v>
+        <v>0.1445798431395797</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04284395195555372</v>
+        <v>0.05004971278760254</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2911,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2243741257.195298</v>
+        <v>2747470818.110919</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07708549958966468</v>
+        <v>0.1031293245414363</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03975551624261019</v>
+        <v>0.04955926532065449</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>76</v>
+      </c>
+      <c r="J70" t="n">
+        <v>491</v>
+      </c>
+      <c r="K70" t="n">
+        <v>27.51977397321848</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2942,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4208230704.706227</v>
+        <v>5193834746.742487</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1547508518058771</v>
+        <v>0.1431910220974711</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03237538350725742</v>
+        <v>0.02804400408970143</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>330</v>
+      </c>
+      <c r="J71" t="n">
+        <v>492</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1382836250.140951</v>
+        <v>1434567857.039127</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1063119132826297</v>
+        <v>0.08307661730979995</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04526044941067174</v>
+        <v>0.04500404166042759</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3012,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3065303613.685174</v>
+        <v>2353712626.007419</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1088341208094313</v>
+        <v>0.07536490376849764</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03282309945704091</v>
+        <v>0.03605552437440029</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>48</v>
+      </c>
+      <c r="J73" t="n">
+        <v>491</v>
+      </c>
+      <c r="K73" t="n">
+        <v>27.82328950564843</v>
       </c>
     </row>
     <row r="74">
@@ -2502,17 +3055,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2602644545.175414</v>
+        <v>3343090049.035878</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1749401163781614</v>
+        <v>0.1466889024764666</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02256363101514569</v>
+        <v>0.03477491901034451</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>144</v>
+      </c>
+      <c r="J74" t="n">
+        <v>485</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2048543441.049685</v>
+        <v>1652602185.914519</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1609235826651668</v>
+        <v>0.1563950901673735</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03182338304816645</v>
+        <v>0.0343127751779718</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4705789605.061124</v>
+        <v>3643421099.193838</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08584198999936987</v>
+        <v>0.1162824419027241</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02737538399797177</v>
+        <v>0.0337496373886271</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>236</v>
+      </c>
+      <c r="J76" t="n">
+        <v>492</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1637826367.73446</v>
+        <v>1832304898.577629</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1242403097022978</v>
+        <v>0.1861653387215202</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02592594255388947</v>
+        <v>0.02084141728434004</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4248978000.974472</v>
+        <v>3687403936.646785</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08876231899881788</v>
+        <v>0.106775734453785</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03705685308158253</v>
+        <v>0.05264093222548849</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>243</v>
+      </c>
+      <c r="J78" t="n">
+        <v>492</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1584124858.281838</v>
+        <v>1668853905.417695</v>
       </c>
       <c r="F79" t="n">
-        <v>0.152280076914712</v>
+        <v>0.1217595763551323</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03665064108185512</v>
+        <v>0.03416280339308953</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4119821417.66497</v>
+        <v>3790902648.239446</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1092921924962668</v>
+        <v>0.08583149269612733</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02346036759561096</v>
+        <v>0.0264559355220824</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>240</v>
+      </c>
+      <c r="J80" t="n">
+        <v>492</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4374540434.530242</v>
+        <v>4444801148.921825</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1345152458364904</v>
+        <v>0.08391953095351302</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03157733835807692</v>
+        <v>0.02337999249243206</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>230</v>
+      </c>
+      <c r="J81" t="n">
+        <v>492</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,17 +3335,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4804536914.795859</v>
+        <v>5091061429.761401</v>
       </c>
       <c r="F82" t="n">
-        <v>0.158739281415165</v>
+        <v>0.1570502152028373</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01793882361375461</v>
+        <v>0.02114813961674002</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>321</v>
+      </c>
+      <c r="J82" t="n">
+        <v>492</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2427755911.511502</v>
+        <v>2436013829.079835</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1179020926114782</v>
+        <v>0.1384027619742752</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03807790721164569</v>
+        <v>0.04457337821524054</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1918040011.138267</v>
+        <v>2559436535.849169</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1137832839154854</v>
+        <v>0.09191957161337119</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04966294773184472</v>
+        <v>0.03249284329208323</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2628289434.254274</v>
+        <v>2965503226.000629</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1795117949458438</v>
+        <v>0.1622777126507236</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05509617963495828</v>
+        <v>0.0376459214745315</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>74</v>
+      </c>
+      <c r="J85" t="n">
+        <v>485</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2090161471.652868</v>
+        <v>1942163718.731481</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1610203449695959</v>
+        <v>0.1689153885306851</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02488957083871023</v>
+        <v>0.0223406760717133</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1454775497.523615</v>
+        <v>1274566518.129074</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1235337707296321</v>
+        <v>0.1491523539230435</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03004314674855574</v>
+        <v>0.02752891208905218</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3073771757.878131</v>
+        <v>2261902238.606747</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1440631822303472</v>
+        <v>0.1292812264580786</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02540067472621624</v>
+        <v>0.02466074130759282</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>71</v>
+      </c>
+      <c r="J88" t="n">
+        <v>485</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3574,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3095683407.347888</v>
+        <v>3426396408.128719</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1288653548398701</v>
+        <v>0.1139137381612212</v>
       </c>
       <c r="G89" t="n">
-        <v>0.029064102420725</v>
+        <v>0.02755504246166634</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>30</v>
+      </c>
+      <c r="J89" t="n">
+        <v>492</v>
+      </c>
+      <c r="K89" t="n">
+        <v>71.53313229261347</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1867344584.176188</v>
+        <v>1424434112.985634</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1366285076378789</v>
+        <v>0.1333211680572468</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0489459010338248</v>
+        <v>0.04301318774888251</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1822596673.159915</v>
+        <v>1946992229.842223</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1768763434645923</v>
+        <v>0.1656781774719328</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0576787293279542</v>
+        <v>0.04037846735918656</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2878408465.924052</v>
+        <v>2619510241.590863</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09049266452736156</v>
+        <v>0.1050624798589991</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03790810177002631</v>
+        <v>0.04077667613678854</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4416334534.582052</v>
+        <v>3371421550.17624</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1226607076512029</v>
+        <v>0.0951268321014108</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05298319870973645</v>
+        <v>0.04873546345166776</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>236</v>
+      </c>
+      <c r="J93" t="n">
+        <v>490</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2000128944.259605</v>
+        <v>2443713898.181976</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1374485000410699</v>
+        <v>0.1051922863698677</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03355719301689031</v>
+        <v>0.02949500605044044</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2235742975.823018</v>
+        <v>2418329915.055368</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1293442934509602</v>
+        <v>0.1180996184377162</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05154317241688234</v>
+        <v>0.04092886659277272</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2360158086.111655</v>
+        <v>2021165468.470699</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1401142043831798</v>
+        <v>0.1195649076877633</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0293397545204588</v>
+        <v>0.03647417377800671</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3338484654.473266</v>
+        <v>4337954377.186056</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1071397253163979</v>
+        <v>0.1533444352298624</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0182802476763095</v>
+        <v>0.02693852251969583</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>256</v>
+      </c>
+      <c r="J97" t="n">
+        <v>491</v>
+      </c>
+      <c r="K97" t="n">
+        <v>26.02490196531596</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3012115261.26666</v>
+        <v>3278595165.096348</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08888735143104208</v>
+        <v>0.1001486669776718</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02386656692016643</v>
+        <v>0.02620246004530573</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>126</v>
+      </c>
+      <c r="J98" t="n">
+        <v>492</v>
+      </c>
+      <c r="K98" t="n">
+        <v>36.21253202904038</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2300447871.992364</v>
+        <v>3231333278.232151</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1437090965706921</v>
+        <v>0.1445297466396772</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03387925438955688</v>
+        <v>0.02817078522223749</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3691900424.526308</v>
+        <v>3755412869.740702</v>
       </c>
       <c r="F100" t="n">
-        <v>0.170273187652084</v>
+        <v>0.1749999750462759</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0215600254464127</v>
+        <v>0.02826586286871119</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>229</v>
+      </c>
+      <c r="J100" t="n">
+        <v>492</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2325138876.615212</v>
+        <v>3030022665.987434</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2033442365060593</v>
+        <v>0.199480563461107</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0574809043644185</v>
+        <v>0.04646992461428479</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
